--- a/data/trans_bre/P14B24_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14B24_2016_2023-Provincia-trans_bre.xlsx
@@ -598,7 +598,7 @@
         <v>19.30974247130258</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>3.392955022640217</v>
+        <v>3.392955022640216</v>
       </c>
     </row>
     <row r="5">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.745035881103472</v>
+        <v>3.830617224378467</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.06053443145179874</v>
+        <v>-0.04233608549908845</v>
       </c>
       <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="inlineStr"/>
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.56997304527644</v>
+        <v>10.52051784271309</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.101406339139047</v>
+        <v>2.202685302651753</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="inlineStr"/>
@@ -648,13 +648,13 @@
         <v>3.981019151089016</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.644550487463508</v>
+        <v>5.644550487463506</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>2.116338380619144</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2.036831793232965</v>
+        <v>2.036831793232964</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.729580105165094</v>
+        <v>1.710091752424535</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.979870452753351</v>
+        <v>3.251658525329258</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5365807927867373</v>
+        <v>0.5626895466592484</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5846172257869459</v>
+        <v>0.733688040460701</v>
       </c>
     </row>
     <row r="9">
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.496817512800844</v>
+        <v>6.752426106061538</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.892962171576073</v>
+        <v>8.260797572336831</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.694438589663883</v>
+        <v>6.689639325437557</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.558074397007903</v>
+        <v>5.248532238120387</v>
       </c>
     </row>
     <row r="10">
@@ -712,13 +712,13 @@
         <v>1.340160000169994</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-0.09118507538462967</v>
+        <v>-0.09118507538463036</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1.472198123197488</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.01823996017901749</v>
+        <v>-0.01823996017901763</v>
       </c>
     </row>
     <row r="11">
@@ -729,14 +729,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4290672896826453</v>
+        <v>-0.3058523860414512</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.165623500467673</v>
-      </c>
-      <c r="E11" s="6" t="inlineStr"/>
+        <v>-3.147630879850793</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.5488973064765267</v>
+      </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4511114009514057</v>
+        <v>-0.4670502296854408</v>
       </c>
     </row>
     <row r="12">
@@ -747,14 +749,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.782913605553538</v>
+        <v>3.601017312869102</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.634404954357333</v>
+        <v>2.507067433248176</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>0.810873835406423</v>
+        <v>0.744354055071024</v>
       </c>
     </row>
     <row r="13">
@@ -772,7 +774,7 @@
         <v>1.649128306278864</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.338668806510233</v>
+        <v>3.338668806510234</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.557377909186284</v>
@@ -789,16 +791,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1140346280153733</v>
+        <v>-0.03285809775365042</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2098387712635135</v>
+        <v>0.2973039212260818</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2954971785422977</v>
+        <v>-0.2481783164779595</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07650044432590285</v>
+        <v>-0.0478759870894045</v>
       </c>
     </row>
     <row r="15">
@@ -809,16 +811,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.903222659973858</v>
+        <v>3.935242512758447</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.288719620895023</v>
+        <v>6.021562072708774</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10.37570519106115</v>
+        <v>10.48833207360088</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.426620629478875</v>
+        <v>3.22925073288889</v>
       </c>
     </row>
     <row r="16">
@@ -853,16 +855,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.07475867517622631</v>
+        <v>0.02874051050697268</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.242297017123158</v>
+        <v>1.156437897737743</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.1757466513312808</v>
+        <v>-0.1964934565011051</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1109796650661332</v>
+        <v>0.1856300105432527</v>
       </c>
     </row>
     <row r="18">
@@ -873,13 +875,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.39342079531827</v>
+        <v>7.688831993756744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.972275711975165</v>
+        <v>4.80187422840104</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7.649521979149716</v>
+        <v>8.080579448869415</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
     </row>
@@ -898,13 +900,13 @@
         <v>3.013369289704283</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.1652257354919</v>
+        <v>1.165225735491898</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>8.254176069149295</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.2255143325520367</v>
+        <v>0.225514332552036</v>
       </c>
     </row>
     <row r="20">
@@ -915,14 +917,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.16836583316455</v>
+        <v>1.088693060050551</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.86471133675026</v>
+        <v>-2.325485415470086</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.2945455006086087</v>
+        <v>-0.3296063204084688</v>
       </c>
     </row>
     <row r="21">
@@ -933,14 +935,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.980526198361781</v>
+        <v>5.913158616656969</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.229002257162255</v>
+        <v>4.22348995987888</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>1.147336874854297</v>
+        <v>1.140969876707519</v>
       </c>
     </row>
     <row r="22">
@@ -975,16 +977,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.18603185420075</v>
+        <v>1.306166187395946</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.502122663692826</v>
+        <v>2.49379236046711</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.8350178218787289</v>
+        <v>0.7529815895097917</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.4146407871416381</v>
+        <v>0.4074496968501626</v>
       </c>
     </row>
     <row r="24">
@@ -995,16 +997,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.468014168282801</v>
+        <v>4.591385797242096</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.004997625804231</v>
+        <v>7.821856940781228</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>21.05562412743505</v>
+        <v>19.90761579954356</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.595575700899864</v>
+        <v>2.640861035046957</v>
       </c>
     </row>
     <row r="25">
@@ -1039,16 +1041,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.078399159177639</v>
+        <v>0.939509321210427</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.973322011725134</v>
+        <v>1.898801034050275</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5003651705716907</v>
+        <v>0.3859928662062017</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.039336871860573</v>
+        <v>1.143253223971358</v>
       </c>
     </row>
     <row r="27">
@@ -1059,16 +1061,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.25540201823376</v>
+        <v>4.289127105085255</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.90335136347126</v>
+        <v>4.957431753634439</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5.647135288052027</v>
+        <v>5.864297669372347</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10.51881820179901</v>
+        <v>10.31129576084194</v>
       </c>
     </row>
     <row r="28">
@@ -1086,7 +1088,7 @@
         <v>3.045104456823021</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.40942519557154</v>
+        <v>3.409425195571542</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>2.783838278419422</v>
@@ -1103,16 +1105,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.251094289297745</v>
+        <v>2.325266348334469</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.48606817594593</v>
+        <v>2.507269796780548</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>1.539485260789245</v>
+        <v>1.664646967741071</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.7734978879983243</v>
+        <v>0.7395693706193074</v>
       </c>
     </row>
     <row r="30">
@@ -1123,16 +1125,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.898424676715557</v>
+        <v>3.829428054668911</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.386690859167711</v>
+        <v>4.343407608113914</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4.377529573099556</v>
+        <v>4.460152559382689</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.904857216561038</v>
+        <v>1.918791795417332</v>
       </c>
     </row>
     <row r="31">
